--- a/src/PeStopAnnualReport/data/centralizare_pe_stop.xlsx
+++ b/src/PeStopAnnualReport/data/centralizare_pe_stop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eu\GitHub\PeStop\src\PeStopAnnualReport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BEF2E0-864F-4953-9D7E-121DA082BA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB8B9AD-4E88-488B-9217-08F8FCD643B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -383,7 +383,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -451,9 +451,8 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("importrange(""https://docs.google.com/spreadsheets/d/1_euHfeY7S3jgqXK1kAnatxKzNaPplzMUordedR37MTM/edit?gid=0#gid=0"",""Martie 2025!G1"")"),"")</f>
-        <v/>
+      <c r="C4" s="1">
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>48</v>

--- a/src/PeStopAnnualReport/data/centralizare_pe_stop.xlsx
+++ b/src/PeStopAnnualReport/data/centralizare_pe_stop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eu\GitHub\PeStop\src\PeStopAnnualReport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB8B9AD-4E88-488B-9217-08F8FCD643B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F71FE4-6A21-4D24-A7CF-D85F8802C686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -383,7 +383,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -565,9 +565,7 @@
       <c r="D10" s="1">
         <v>48</v>
       </c>
-      <c r="E10" s="1">
-        <v>50</v>
-      </c>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
@@ -595,7 +593,6 @@
         <v>15</v>
       </c>
       <c r="C12" s="1">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("importrange(""https://docs.google.com/spreadsheets/d/1_euHfeY7S3jgqXK1kAnatxKzNaPplzMUordedR37MTM/edit?gid=0#gid=0"",""Noiembrie 2025!G1"")"),0)</f>
         <v>0</v>
       </c>
       <c r="D12" s="1">

--- a/src/PeStopAnnualReport/data/centralizare_pe_stop.xlsx
+++ b/src/PeStopAnnualReport/data/centralizare_pe_stop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eu\GitHub\PeStop\src\PeStopAnnualReport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F71FE4-6A21-4D24-A7CF-D85F8802C686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3DDF6C-3BB6-4BBD-8E06-35824FE759E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -383,7 +383,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -565,7 +565,9 @@
       <c r="D10" s="1">
         <v>48</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">

--- a/src/PeStopAnnualReport/data/centralizare_pe_stop.xlsx
+++ b/src/PeStopAnnualReport/data/centralizare_pe_stop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eu\GitHub\PeStop\src\PeStopAnnualReport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3DDF6C-3BB6-4BBD-8E06-35824FE759E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E23CFF5-C976-47DC-B2C8-74406FB042D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>an</t>
   </si>
@@ -41,7 +41,7 @@
     <t>luna</t>
   </si>
   <si>
-    <t>nr_pac_buc</t>
+    <t>nr_pac_bucuresti</t>
   </si>
   <si>
     <t>nr_pac_tulcea</t>
@@ -104,7 +104,7 @@
     <t>educatie_menstruala</t>
   </si>
   <si>
-    <t>voluntari_buc</t>
+    <t>voluntari_bucuresti</t>
   </si>
   <si>
     <t>voluntari_tulcea</t>
@@ -383,11 +383,12 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="3" max="3" width="14.609375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -566,7 +567,7 @@
         <v>48</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -595,6 +596,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="1">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("importrange(""https://docs.google.com/spreadsheets/d/1_euHfeY7S3jgqXK1kAnatxKzNaPplzMUordedR37MTM/edit?gid=0#gid=0"",""Noiembrie 2025!G1"")"),0)</f>
         <v>0</v>
       </c>
       <c r="D12" s="1">
@@ -642,7 +644,9 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -676,7 +680,9 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>2024</v>
+      </c>
       <c r="B3" s="1">
         <v>150</v>
       </c>
@@ -704,6 +710,9 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>2025</v>
+      </c>
       <c r="B5" s="1">
         <v>632</v>
       </c>
@@ -725,32 +734,68 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B2" s="1">
         <v>25</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B3" s="1">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="1">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
